--- a/Tables/aq_hmf_metrics_outlet_mean_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_mean_50_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,61 +547,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7652841551539147</v>
+        <v>0.9150127828785746</v>
       </c>
       <c r="C2" t="n">
-        <v>79.91818514431029</v>
+        <v>105.9217332995952</v>
       </c>
       <c r="D2" t="n">
-        <v>48.16508116109186</v>
+        <v>70.08921181559668</v>
       </c>
       <c r="E2" t="n">
-        <v>0.544557174075781</v>
+        <v>0.692601630723806</v>
       </c>
       <c r="F2" t="n">
-        <v>55.63842857142857</v>
+        <v>36.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.062833273660341</v>
+        <v>1.930394736842105</v>
       </c>
       <c r="H2" t="n">
-        <v>198.2986087700938</v>
+        <v>199.2596685222672</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1710151734055561</v>
+        <v>0.150071384314451</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1877180891248596</v>
+        <v>0.2036048616091744</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1734696906569251</v>
+        <v>0.2408137044961552</v>
       </c>
       <c r="L2" t="n">
-        <v>0.138063979532093</v>
+        <v>0.1974621803082511</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1505314578945185</v>
+        <v>0.1717871419701794</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2001318175760373</v>
+        <v>0.1855200791398453</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2275038759051833</v>
+        <v>0.1761262415644578</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2058150705139814</v>
+        <v>0.1906353520194909</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2134781826258301</v>
+        <v>0.1565130308365134</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1813077605390854</v>
+        <v>0.1531014293910231</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2107567823683997</v>
+        <v>0.139593751238577</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1686463255337614</v>
+        <v>0.1537173935222352</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -1306,61 +1306,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.343995680377283</v>
+        <v>0.3983269122262941</v>
       </c>
       <c r="C13" t="n">
-        <v>36.74822695035461</v>
+        <v>37.92480657640232</v>
       </c>
       <c r="D13" t="n">
-        <v>5.114174641737368</v>
+        <v>6.742259769181814</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0415262784303628</v>
+        <v>0.07130505527558714</v>
       </c>
       <c r="F13" t="n">
-        <v>98</v>
+        <v>95.5</v>
       </c>
       <c r="G13" t="n">
-        <v>9.053617021276596</v>
+        <v>7.68794003868472</v>
       </c>
       <c r="H13" t="n">
-        <v>154.3805673758866</v>
+        <v>156.8308800773694</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06878747401586384</v>
+        <v>0.07984799703107301</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06759006816811843</v>
+        <v>0.08412959329460763</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07393184047893851</v>
+        <v>0.09661455273764709</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05774098664710769</v>
+        <v>0.07839321881705771</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07984266764256155</v>
+        <v>0.1084712969021908</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03093539348715192</v>
+        <v>0.05316827278251294</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03865131115575939</v>
+        <v>0.04084010307539714</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02547867480786985</v>
+        <v>0.02131704053638398</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03638458803806739</v>
+        <v>0.06625423422833294</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03502527907872515</v>
+        <v>0.1170552613911447</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05063967379375191</v>
+        <v>0.05401782260577534</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07011540834154154</v>
+        <v>0.09240151505177935</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1444,61 +1444,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.859790449691609</v>
+        <v>0.7907843246580615</v>
       </c>
       <c r="C15" t="n">
-        <v>37.1727641723356</v>
+        <v>37.98879067255574</v>
       </c>
       <c r="D15" t="n">
-        <v>6.123099039677384</v>
+        <v>6.791319895717668</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1318166005318793</v>
+        <v>0.1275219140370828</v>
       </c>
       <c r="F15" t="n">
-        <v>98</v>
+        <v>96.23529411764706</v>
       </c>
       <c r="G15" t="n">
-        <v>7.204810361825889</v>
+        <v>6.921919144861234</v>
       </c>
       <c r="H15" t="n">
-        <v>167.7461935817805</v>
+        <v>168.6492473264276</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1521074338422582</v>
+        <v>0.138428642316614</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1618678239365982</v>
+        <v>0.149738241172121</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2290240211913693</v>
+        <v>0.2103469434714651</v>
       </c>
       <c r="L15" t="n">
-        <v>0.199710899578136</v>
+        <v>0.188129908233719</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1369744670892213</v>
+        <v>0.1313944304068594</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2050124534612779</v>
+        <v>0.1890427626586348</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08001813027010445</v>
+        <v>0.07860837239303617</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0789084292431281</v>
+        <v>0.06995123473403458</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3220293029839441</v>
+        <v>0.2949232191559587</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1239932935638235</v>
+        <v>0.1162674522745605</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1023587072147054</v>
+        <v>0.09532897084848067</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1389822097310819</v>
+        <v>0.1269484690586311</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1927,61 +1927,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.873736095397328</v>
+        <v>0.3245773099820645</v>
       </c>
       <c r="C22" t="n">
-        <v>65.14285714285714</v>
+        <v>60.32048624158015</v>
       </c>
       <c r="D22" t="n">
-        <v>23.87746598639456</v>
+        <v>23.1270089607293</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6765391364903054</v>
+        <v>0.1377504127184475</v>
       </c>
       <c r="F22" t="n">
-        <v>56.00000000000001</v>
+        <v>62</v>
       </c>
       <c r="G22" t="n">
-        <v>3.142857142857143</v>
+        <v>3.478456349101344</v>
       </c>
       <c r="H22" t="n">
-        <v>203.2857142857143</v>
+        <v>212.077389369603</v>
       </c>
       <c r="I22" t="n">
-        <v>0.158945857987392</v>
+        <v>0.03256938557476188</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3046965185287296</v>
+        <v>0.04682151806675711</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5155578511597744</v>
+        <v>0.07843045130869496</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7646014596389761</v>
+        <v>0.1093833910855864</v>
       </c>
       <c r="M22" t="n">
-        <v>0.638066902459392</v>
+        <v>0.09774235812722086</v>
       </c>
       <c r="N22" t="n">
-        <v>0.374430911812416</v>
+        <v>0.09245266974282745</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0254933171918208</v>
+        <v>0.01977069398035227</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4.89315109248e-05</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>6.893906205849684e-05</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.01366661993280757</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.01616833041819072</v>
       </c>
       <c r="T22" t="n">
-        <v>0.026728837842672</v>
+        <v>0.01675609184396617</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_mean_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_mean_50_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,65 +543,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9150127828785746</v>
+        <v>0.5208746064332649</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9217332995952</v>
+        <v>77.97961519772744</v>
       </c>
       <c r="D2" t="n">
-        <v>70.08921181559668</v>
+        <v>34.59089703580135</v>
       </c>
       <c r="E2" t="n">
-        <v>0.692601630723806</v>
+        <v>0.3398043965249737</v>
       </c>
       <c r="F2" t="n">
-        <v>36.5</v>
+        <v>57.64771428571429</v>
       </c>
       <c r="G2" t="n">
-        <v>1.930394736842105</v>
+        <v>3.752638857740898</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2596685222672</v>
+        <v>209.4646168174229</v>
       </c>
       <c r="I2" t="n">
-        <v>0.150071384314451</v>
+        <v>0.1674608383058097</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2036048616091744</v>
+        <v>0.1415267835312374</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2408137044961552</v>
+        <v>0.1324067870619986</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1974621803082511</v>
+        <v>0.1018846672972594</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1717871419701794</v>
+        <v>0.09119680639113396</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1855200791398453</v>
+        <v>0.08403663096368466</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1761262415644578</v>
+        <v>0.09053239930809573</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1906353520194909</v>
+        <v>0.1035390019638771</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1565130308365134</v>
+        <v>0.08712961807882118</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1531014293910231</v>
+        <v>0.1297317118427358</v>
       </c>
       <c r="S2" t="n">
-        <v>0.139593751238577</v>
+        <v>0.06747957761491223</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1537173935222352</v>
+        <v>0.1129995128591394</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03861190159442009</v>
+        <v>0.2725162445226081</v>
       </c>
       <c r="C3" t="n">
-        <v>49.00701262272089</v>
+        <v>64.13772891602869</v>
       </c>
       <c r="D3" t="n">
-        <v>11.70747999322245</v>
+        <v>27.00150265452449</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008679885916268813</v>
+        <v>0.1633211030442289</v>
       </c>
       <c r="F3" t="n">
-        <v>77</v>
+        <v>65.26670588235295</v>
       </c>
       <c r="G3" t="n">
-        <v>5.590813464235624</v>
+        <v>3.578695492013371</v>
       </c>
       <c r="H3" t="n">
-        <v>224.8075035063113</v>
+        <v>205.4588645352735</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00337291021243512</v>
+        <v>0.07727452596515116</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0085840821457104</v>
+        <v>0.07019587739234021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01352222304406848</v>
+        <v>0.06620869605167401</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009357452442783359</v>
+        <v>0.0585461318497178</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004182500050212011</v>
+        <v>0.05734942140386728</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007192528977020368</v>
+        <v>0.05207643270545237</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01140470769056406</v>
+        <v>0.04221044477592902</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01182871447157172</v>
+        <v>0.0437392138315068</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0129396165589435</v>
+        <v>0.03668094702770803</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01160541265610765</v>
+        <v>0.05580096450001317</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003992938997330104</v>
+        <v>0.03193094497556939</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004988812196337985</v>
+        <v>0.05308019591376217</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7026512993645214</v>
+        <v>0.04583540903192919</v>
       </c>
       <c r="C4" t="n">
-        <v>40.69052835068251</v>
+        <v>58.70967741935484</v>
       </c>
       <c r="D4" t="n">
-        <v>9.712533867809679</v>
+        <v>18.79896429735139</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1215432167307034</v>
+        <v>0.01361859924427433</v>
       </c>
       <c r="F4" t="n">
-        <v>90.26627272727272</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>5.641820384536533</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="H4" t="n">
-        <v>129.5588801016769</v>
+        <v>216.4193548387097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2401602887488765</v>
+        <v>0.0045169901022456</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2169817621523794</v>
+        <v>0.008891399218490879</v>
       </c>
       <c r="K4" t="n">
-        <v>0.189678812811631</v>
+        <v>0.01709422334157888</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08268886225451978</v>
+        <v>0.01664650001661696</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02520112702155438</v>
+        <v>0.005693915268764352</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01389865241622644</v>
+        <v>0.005775252784878895</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00025505550069552</v>
+        <v>0.01942116134360775</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0005140966953718235</v>
+        <v>0.01692769309939814</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001031526892697699</v>
+        <v>0.01821292001009712</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00889065157136436</v>
+        <v>0.01376688059869248</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1050734290209631</v>
+        <v>0.003357830838154929</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1874206393589068</v>
+        <v>0.00779968284141312</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.29013479197118</v>
+        <v>0.6536055359491029</v>
       </c>
       <c r="C5" t="n">
-        <v>42.22460891105908</v>
+        <v>44.78050502120699</v>
       </c>
       <c r="D5" t="n">
-        <v>14.38877893238196</v>
+        <v>11.33766630507042</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4977214868988384</v>
+        <v>0.1233093842325464</v>
       </c>
       <c r="F5" t="n">
-        <v>86</v>
+        <v>85.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.294928569004717</v>
+        <v>5.189019834401607</v>
       </c>
       <c r="H5" t="n">
-        <v>207.1483083918694</v>
+        <v>133.0100063557576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009337763334816</v>
+        <v>0.2234357590283037</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09053070907617163</v>
+        <v>0.2072746889966866</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2760184681949414</v>
+        <v>0.168058088880091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6017952498406026</v>
+        <v>0.07822632245810736</v>
       </c>
       <c r="M5" t="n">
-        <v>0.438351338695356</v>
+        <v>0.02496028546331168</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3339318881208427</v>
+        <v>0.012076661658413</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2567327641533312</v>
+        <v>0.000261674846756736</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0691658557281792</v>
+        <v>0.00076333157042688</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2210236348473217</v>
+        <v>0.000200873638648489</v>
       </c>
       <c r="R5" t="n">
-        <v>0.432113784631584</v>
+        <v>0.004667219627086922</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08494646217408959</v>
+        <v>0.08720153677667793</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0252758438099328</v>
+        <v>0.1658981813046871</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.335567926574961</v>
+        <v>0.8078330381435048</v>
       </c>
       <c r="C6" t="n">
-        <v>72.92045454545455</v>
+        <v>40.26116214116879</v>
       </c>
       <c r="D6" t="n">
-        <v>35.2979797979798</v>
+        <v>12.48517425432989</v>
       </c>
       <c r="E6" t="n">
-        <v>1.118051134882569</v>
+        <v>0.2805653015662923</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>90.95650000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>2.408333333333333</v>
+        <v>4.140911598459762</v>
       </c>
       <c r="H6" t="n">
-        <v>157.0931818181818</v>
+        <v>206.0133334307729</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6094572596655481</v>
+        <v>0.01104832279152981</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6862149266914079</v>
+        <v>0.04535357491436994</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6977362895404307</v>
+        <v>0.181129569024242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7813891799393207</v>
+        <v>0.3803036075081255</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4616050273240689</v>
+        <v>0.2469150700234328</v>
       </c>
       <c r="N6" t="n">
-        <v>0.326903269236768</v>
+        <v>0.1980485692192868</v>
       </c>
       <c r="O6" t="n">
-        <v>0.077451591578112</v>
+        <v>0.1522337487373167</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001345616550432</v>
+        <v>0.06348820177264865</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.026056029567456</v>
+        <v>0.1192531654900782</v>
       </c>
       <c r="R6" t="n">
-        <v>0.103000830496704</v>
+        <v>0.2164000927578809</v>
       </c>
       <c r="S6" t="n">
-        <v>0.270897077357424</v>
+        <v>0.06647636441640148</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4805187291686725</v>
+        <v>0.02060081657775984</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.991924681523263</v>
+        <v>0.09050775927356101</v>
       </c>
       <c r="C7" t="n">
-        <v>39.98567505848258</v>
+        <v>39.1000342409195</v>
       </c>
       <c r="D7" t="n">
-        <v>7.878613042529049</v>
+        <v>5.888482619500778</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2162704231085049</v>
+        <v>0.01268346122226075</v>
       </c>
       <c r="F7" t="n">
-        <v>91.8492</v>
+        <v>94</v>
       </c>
       <c r="G7" t="n">
-        <v>5.769564836192218</v>
+        <v>7.151320286434268</v>
       </c>
       <c r="H7" t="n">
-        <v>169.9024254484496</v>
+        <v>221.8737813832571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2305341756458401</v>
+        <v>0.002610952899026378</v>
       </c>
       <c r="J7" t="n">
-        <v>0.221296032403221</v>
+        <v>0.005442144845895538</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2732460429424261</v>
+        <v>0.020180906107496</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2605853709608194</v>
+        <v>0.01776458878783578</v>
       </c>
       <c r="M7" t="n">
-        <v>0.22456479917225</v>
+        <v>0.02796439593830944</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1919900404976269</v>
+        <v>0.02091248448687662</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1961444721859509</v>
+        <v>0.01381876786248189</v>
       </c>
       <c r="P7" t="n">
-        <v>0.105788592698036</v>
+        <v>0.01191947375221815</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1381371379020812</v>
+        <v>0.0132334380006439</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1365532380135168</v>
+        <v>0.02725365971990574</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1377500982469944</v>
+        <v>0.01659012295495244</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1614427671029559</v>
+        <v>0.005750302656884111</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,65 +957,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.254693091469068</v>
+        <v>1.560713617024633</v>
       </c>
       <c r="C8" t="n">
-        <v>41.32702639783292</v>
+        <v>64.18628593628594</v>
       </c>
       <c r="D8" t="n">
-        <v>10.37422175320666</v>
+        <v>26.84199535032869</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3480989642683849</v>
+        <v>0.7462094067343642</v>
       </c>
       <c r="F8" t="n">
-        <v>88.98475000000001</v>
+        <v>61.33333333333334</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4373238439206</v>
+        <v>3.067094017094017</v>
       </c>
       <c r="H8" t="n">
-        <v>190.9022050283266</v>
+        <v>152.6604118104118</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1128637038359303</v>
+        <v>0.4073378825152807</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1244017556247542</v>
+        <v>0.4588065605780314</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2273480138827281</v>
+        <v>0.4663389396337246</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1769686386404138</v>
+        <v>0.5219024327273173</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4574247788794752</v>
+        <v>0.3085758534990297</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6233205313309315</v>
+        <v>0.2188491456859962</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2372671974635593</v>
+        <v>0.0517852665440928</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01944517856022</v>
+        <v>0.00089952427583424</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007951370525279999</v>
+        <v>0.017370686378304</v>
       </c>
       <c r="R8" t="n">
-        <v>0.000168202068804</v>
+        <v>0.06866722033113599</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01550303177069304</v>
+        <v>0.1808635457946421</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05459922430455881</v>
+        <v>0.3209648787863187</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.972598508179832</v>
+        <v>1.194228884099768</v>
       </c>
       <c r="C9" t="n">
-        <v>43.96968073949781</v>
+        <v>37.52495828534929</v>
       </c>
       <c r="D9" t="n">
-        <v>8.61413441541629</v>
+        <v>7.041974065072841</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2710834449093962</v>
+        <v>0.2497082713100133</v>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
+        <v>97.18780000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>5.175612003355906</v>
+        <v>5.962085745645776</v>
       </c>
       <c r="H9" t="n">
-        <v>182.9562346437346</v>
+        <v>157.3500828760428</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1791808743997442</v>
+        <v>0.2567442527469745</v>
       </c>
       <c r="J9" t="n">
-        <v>0.129538858498283</v>
+        <v>0.3121480836105066</v>
       </c>
       <c r="K9" t="n">
-        <v>0.238116594071144</v>
+        <v>0.3683345966964269</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1781608637626219</v>
+        <v>0.3995316045563646</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3303075619150302</v>
+        <v>0.2438370044833199</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3824277915554453</v>
+        <v>0.1316918208819154</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2882992869206501</v>
+        <v>0.1184953793881468</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2026518913080137</v>
+        <v>0.07900771265357849</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04935306948350331</v>
+        <v>0.1143524833964047</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1607298772440143</v>
+        <v>0.09111158114374267</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1785277938473758</v>
+        <v>0.08629349185091185</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2428982714200115</v>
+        <v>0.1802206349617537</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8116074900171553</v>
+        <v>0.7485844253520507</v>
       </c>
       <c r="C10" t="n">
-        <v>43.89734692954178</v>
+        <v>40.26364302811443</v>
       </c>
       <c r="D10" t="n">
-        <v>13.84012361221006</v>
+        <v>8.063203511436642</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2497283050049333</v>
+        <v>0.1750400370654996</v>
       </c>
       <c r="F10" t="n">
-        <v>83.551</v>
+        <v>91.11429411764706</v>
       </c>
       <c r="G10" t="n">
-        <v>4.670992229122128</v>
+        <v>6.399293546340868</v>
       </c>
       <c r="H10" t="n">
-        <v>174.4841998936736</v>
+        <v>165.959214977907</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1825576126369208</v>
+        <v>0.1980860032766031</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1968263840200822</v>
+        <v>0.155252221620151</v>
       </c>
       <c r="K10" t="n">
-        <v>0.278664087252065</v>
+        <v>0.1890771905639595</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2864727005032738</v>
+        <v>0.1740778077177543</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1181662636823675</v>
+        <v>0.1892395017178998</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05021357087937538</v>
+        <v>0.1676320890258978</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2617609895166834</v>
+        <v>0.1833104008950422</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08772868641206177</v>
+        <v>0.1044903846409923</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1068902196029937</v>
+        <v>0.1360060023093329</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1587032374061928</v>
+        <v>0.1374855078141285</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07472269251115461</v>
+        <v>0.1273876322423857</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1742597509126575</v>
+        <v>0.1324322203272329</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1792091380767214</v>
+        <v>3.524804918573667</v>
       </c>
       <c r="C11" t="n">
-        <v>38.41554030139061</v>
+        <v>45.33143717244084</v>
       </c>
       <c r="D11" t="n">
-        <v>5.664400827338537</v>
+        <v>14.22620610403129</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02635428192826429</v>
+        <v>1.045803897175705</v>
       </c>
       <c r="F11" t="n">
-        <v>95.40000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="G11" t="n">
-        <v>6.891295862698598</v>
+        <v>4.106878604430625</v>
       </c>
       <c r="H11" t="n">
-        <v>223.0685458599151</v>
+        <v>218.7017016141863</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003377859693016966</v>
+        <v>0.304016836541265</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01427224970949506</v>
+        <v>0.3379688849566047</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05113461994371728</v>
+        <v>0.628243691044486</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03838175943398946</v>
+        <v>0.4984505810795746</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04941174503779706</v>
+        <v>1.326630191859815</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06132469881328828</v>
+        <v>1.791339652635755</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03387444695798238</v>
+        <v>0.5959882108050781</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0179444994096321</v>
+        <v>0.031112285696352</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02008358343738583</v>
+        <v>0.012722192840448</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03181625076277742</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01470010955943878</v>
+        <v>0.02103761380700865</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0121859522003984</v>
+        <v>0.1163338516985302</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2112347983904279</v>
+        <v>0.3440876420449348</v>
       </c>
       <c r="C12" t="n">
-        <v>43.27066013607683</v>
+        <v>43.96319089298446</v>
       </c>
       <c r="D12" t="n">
-        <v>11.18002260208423</v>
+        <v>8.182556383179842</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08074392753697064</v>
+        <v>0.05838029628481002</v>
       </c>
       <c r="F12" t="n">
-        <v>85.99687179487179</v>
+        <v>84.88888888888889</v>
       </c>
       <c r="G12" t="n">
-        <v>5.042668844513867</v>
+        <v>5.567320939408073</v>
       </c>
       <c r="H12" t="n">
-        <v>228.3117876738302</v>
+        <v>203.9439323976242</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003509949752347983</v>
+        <v>0.03398489528034487</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007260976705626248</v>
+        <v>0.05768213054022913</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03647461888639899</v>
+        <v>0.06336774600073879</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04895201239044156</v>
+        <v>0.06243095058191554</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05861752912802251</v>
+        <v>0.09784539426160239</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07604335743104518</v>
+        <v>0.1382454629095825</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06400086470092756</v>
+        <v>0.07924597041964306</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05279611737500664</v>
+        <v>0.05008488028860018</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04286822213392434</v>
+        <v>0.03702084782801139</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03339804596841851</v>
+        <v>0.09009365465354696</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02537042580165564</v>
+        <v>0.05446934782796031</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01156088796582656</v>
+        <v>0.05622105244401405</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3983269122262941</v>
+        <v>0.7817869323918284</v>
       </c>
       <c r="C13" t="n">
-        <v>37.92480657640232</v>
+        <v>45.3264193878712</v>
       </c>
       <c r="D13" t="n">
-        <v>6.742259769181814</v>
+        <v>19.20628060590627</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07130505527558714</v>
+        <v>0.2576641242637826</v>
       </c>
       <c r="F13" t="n">
-        <v>95.5</v>
+        <v>81.1836</v>
       </c>
       <c r="G13" t="n">
-        <v>7.68794003868472</v>
+        <v>3.414136989418592</v>
       </c>
       <c r="H13" t="n">
-        <v>156.8308800773694</v>
+        <v>181.3188948306596</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07984799703107301</v>
+        <v>0.1812365760154767</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08412959329460763</v>
+        <v>0.1917070382805825</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09661455273764709</v>
+        <v>0.2748907371533947</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07839321881705771</v>
+        <v>0.282451460278089</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1084712969021908</v>
+        <v>0.1146691557807447</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05316827278251294</v>
+        <v>0.05063440164363611</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04084010307539714</v>
+        <v>0.2601501874777585</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02131704053638398</v>
+        <v>0.0785677193423068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.06625423422833294</v>
+        <v>0.09707410997262872</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1170552613911447</v>
+        <v>0.1458242976680725</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05401782260577534</v>
+        <v>0.07072832430797968</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09240151505177935</v>
+        <v>0.1691446277642901</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9808045409114853</v>
+        <v>0.1291356684509361</v>
       </c>
       <c r="C14" t="n">
-        <v>37.68799470447578</v>
+        <v>39.64167201339229</v>
       </c>
       <c r="D14" t="n">
-        <v>6.898723064127929</v>
+        <v>8.898372984509491</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1970127959885204</v>
+        <v>0.03306353692435953</v>
       </c>
       <c r="F14" t="n">
-        <v>96</v>
+        <v>92.76923076923077</v>
       </c>
       <c r="G14" t="n">
-        <v>7.173296600437205</v>
+        <v>6.403335109448191</v>
       </c>
       <c r="H14" t="n">
-        <v>154.204112692931</v>
+        <v>229.9928663857966</v>
       </c>
       <c r="I14" t="n">
-        <v>0.190121679112314</v>
+        <v>0.004555453843388771</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2424192891558747</v>
+        <v>0.01175763597290766</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3018111815495064</v>
+        <v>0.0401146264164146</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3014547891600313</v>
+        <v>0.02473566145674298</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2183691207434109</v>
+        <v>0.03335622551098297</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1169366605941532</v>
+        <v>0.04178495719773467</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09005500846887436</v>
+        <v>0.02733155144734914</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07497204503237667</v>
+        <v>0.02084555581216207</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09414024330236517</v>
+        <v>0.01882040627400277</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1547859604138507</v>
+        <v>0.01895110676243691</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07830494842955787</v>
+        <v>0.01034835052346434</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1776954576848127</v>
+        <v>0.007218094278962592</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7907843246580615</v>
+        <v>0.5990447524838977</v>
       </c>
       <c r="C15" t="n">
-        <v>37.98879067255574</v>
+        <v>46.35974265507354</v>
       </c>
       <c r="D15" t="n">
-        <v>6.791319895717668</v>
+        <v>16.60011316535304</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1275219140370828</v>
+        <v>0.2470863771644189</v>
       </c>
       <c r="F15" t="n">
-        <v>96.23529411764706</v>
+        <v>81.85714285714286</v>
       </c>
       <c r="G15" t="n">
-        <v>6.921919144861234</v>
+        <v>4.191083640250265</v>
       </c>
       <c r="H15" t="n">
-        <v>168.6492473264276</v>
+        <v>228.9678519346723</v>
       </c>
       <c r="I15" t="n">
-        <v>0.138428642316614</v>
+        <v>0.004191163659116598</v>
       </c>
       <c r="J15" t="n">
-        <v>0.149738241172121</v>
+        <v>0.01542618842934442</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2103469434714651</v>
+        <v>0.1001686579636328</v>
       </c>
       <c r="L15" t="n">
-        <v>0.188129908233719</v>
+        <v>0.1888429268596187</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1313944304068594</v>
+        <v>0.1622838138295108</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1890427626586348</v>
+        <v>0.1834729903292896</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07860837239303617</v>
+        <v>0.1712350674974293</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06995123473403458</v>
+        <v>0.1559499941925318</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2949232191559587</v>
+        <v>0.1006997496606919</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1162674522745605</v>
+        <v>0.1173534087986381</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09532897084848067</v>
+        <v>0.0766830936279177</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1269484690586311</v>
+        <v>0.02034183934406288</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9972677159656933</v>
+        <v>3.772935903642165</v>
       </c>
       <c r="C16" t="n">
-        <v>47.93159707675837</v>
+        <v>45.05449472096531</v>
       </c>
       <c r="D16" t="n">
-        <v>27.67523022079473</v>
+        <v>16.99386035968389</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6446660160252849</v>
+        <v>1.374970966115506</v>
       </c>
       <c r="F16" t="n">
-        <v>78</v>
+        <v>82.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.154086952474049</v>
+        <v>3.829264167205344</v>
       </c>
       <c r="H16" t="n">
-        <v>248.1669692314854</v>
+        <v>167.8274628312864</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01071436984216706</v>
+        <v>0.4735452364699899</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03250357165698065</v>
+        <v>0.233069477703192</v>
       </c>
       <c r="K16" t="n">
-        <v>0.009483579237372006</v>
+        <v>0.7211415379964269</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06839997701072462</v>
+        <v>1.340719291324185</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3519201896888184</v>
+        <v>1.370507054438836</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5680491510007827</v>
+        <v>1.12247007954969</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1561463471491498</v>
+        <v>1.503859221831144</v>
       </c>
       <c r="P16" t="n">
-        <v>0.008018243590210616</v>
+        <v>1.517340158912869</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0589461601607426</v>
+        <v>0.6345944981747432</v>
       </c>
       <c r="R16" t="n">
-        <v>0.003413788412186927</v>
+        <v>0.8293323729234069</v>
       </c>
       <c r="S16" t="n">
-        <v>0.00654622063655624</v>
+        <v>0.4247727948996954</v>
       </c>
       <c r="T16" t="n">
-        <v>0.005568405943242323</v>
+        <v>0.8750408676496702</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.298495978785845</v>
+        <v>1.098814187687978</v>
       </c>
       <c r="C17" t="n">
-        <v>43.5</v>
+        <v>37.8391808220198</v>
       </c>
       <c r="D17" t="n">
-        <v>25.77579365079365</v>
+        <v>6.969029122359419</v>
       </c>
       <c r="E17" t="n">
-        <v>1.432221441315653</v>
+        <v>0.2506404006304726</v>
       </c>
       <c r="F17" t="n">
-        <v>84</v>
+        <v>95.63636363636364</v>
       </c>
       <c r="G17" t="n">
-        <v>2.119047619047619</v>
+        <v>7.282259171520977</v>
       </c>
       <c r="H17" t="n">
-        <v>246.9761904761905</v>
+        <v>156.9323831782874</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007437589660569957</v>
+        <v>0.2168169019256551</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1656331644804507</v>
+        <v>0.2396955963611411</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1268467868207248</v>
+        <v>0.3300750532697988</v>
       </c>
       <c r="L17" t="n">
-        <v>0.171190968596325</v>
+        <v>0.3209780722463619</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8609352552685815</v>
+        <v>0.2736107679079621</v>
       </c>
       <c r="N17" t="n">
-        <v>1.384598654135428</v>
+        <v>0.1860776842222421</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2496196546636936</v>
+        <v>0.1419046483339171</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.1272767075174049</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.08472197434890248</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.1378149656457013</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.1015027458422327</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0005382466201729781</v>
+        <v>0.2040783604000695</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.51938299213324</v>
+        <v>1.395329929410527</v>
       </c>
       <c r="C18" t="n">
-        <v>37.66401338518757</v>
+        <v>38.12891391391391</v>
       </c>
       <c r="D18" t="n">
-        <v>5.889903553897571</v>
+        <v>6.091801672424798</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3153822020298751</v>
+        <v>0.2120699814642422</v>
       </c>
       <c r="F18" t="n">
-        <v>96.45824999999999</v>
+        <v>96.22222222222223</v>
       </c>
       <c r="G18" t="n">
-        <v>7.52345475655572</v>
+        <v>7.775020020020019</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6927943702921</v>
+        <v>170.0031831831832</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4718376235359882</v>
+        <v>0.2497762204824956</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3474367857043656</v>
+        <v>0.264972244440602</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2236788371752667</v>
+        <v>0.3684823009393806</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1359169583904451</v>
+        <v>0.3385030062005795</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0388785555300647</v>
+        <v>0.2239337345805233</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1052592728199055</v>
+        <v>0.3304434368348128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07098520503170161</v>
+        <v>0.1364448232718075</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0235879008556896</v>
+        <v>0.1143747940856738</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01445375668329936</v>
+        <v>0.4781350395938908</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06080943132049968</v>
+        <v>0.1815339370571545</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3263697893534415</v>
+        <v>0.1656542814164411</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5120992178087006</v>
+        <v>0.2206875229709728</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.015334732665181</v>
+        <v>0.3122612062814619</v>
       </c>
       <c r="C19" t="n">
-        <v>39.17395779287023</v>
+        <v>37.38879939209727</v>
       </c>
       <c r="D19" t="n">
-        <v>6.567674815537151</v>
+        <v>5.328278139095175</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1581068816346881</v>
+        <v>0.04686051298726959</v>
       </c>
       <c r="F19" t="n">
-        <v>93.69230769230769</v>
+        <v>97.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.773453944605899</v>
+        <v>6.501259227095093</v>
       </c>
       <c r="H19" t="n">
-        <v>165.0559982401008</v>
+        <v>224.8606925749023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1978412794987237</v>
+        <v>0.004528219884002848</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2133834650346284</v>
+        <v>0.02751740700489433</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2951975240287012</v>
+        <v>0.09756519069804918</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2382185848102863</v>
+        <v>0.06930751540322</v>
       </c>
       <c r="M19" t="n">
-        <v>0.157713802020619</v>
+        <v>0.08158276868702852</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2139816655874434</v>
+        <v>0.1219430203029058</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1209687568684401</v>
+        <v>0.0639579656012331</v>
       </c>
       <c r="P19" t="n">
-        <v>0.08204362411353464</v>
+        <v>0.02698203789575303</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3095353614859749</v>
+        <v>0.03035880159249875</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1391484920884741</v>
+        <v>0.03866013732708494</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1356073230456007</v>
+        <v>0.0118650894661683</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1723969312261257</v>
+        <v>0.02183942651566984</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,53 +1785,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2090629386456408</v>
+        <v>0.6933065229797619</v>
       </c>
       <c r="C20" t="n">
-        <v>56.84375</v>
+        <v>46.77991966563395</v>
       </c>
       <c r="D20" t="n">
-        <v>33.90520833333333</v>
+        <v>25.61650930966407</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1490793667403878</v>
+        <v>0.4258921418379256</v>
       </c>
       <c r="F20" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G20" t="n">
-        <v>2.46875</v>
+        <v>2.343153732439447</v>
       </c>
       <c r="H20" t="n">
-        <v>238.28125</v>
+        <v>244.2145148788006</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.00802476779166726</v>
       </c>
       <c r="J20" t="n">
-        <v>0.019939590701856</v>
+        <v>0.02842105259548845</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0106344483743232</v>
+        <v>0.03310141957587723</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03243158302499869</v>
+        <v>0.05311773582536455</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08396805118279309</v>
+        <v>0.238334193344232</v>
       </c>
       <c r="N20" t="n">
-        <v>0.09735021961510811</v>
+        <v>0.4135374896324539</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0559496876345856</v>
+        <v>0.1017737228913033</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0131931586330992</v>
+        <v>0.000774748922976</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.0005953333829184002</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.00205376425020483</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.526284512286693</v>
+        <v>0.807859425425963</v>
       </c>
       <c r="C21" t="n">
-        <v>40.18283844309136</v>
+        <v>43.00915664820507</v>
       </c>
       <c r="D21" t="n">
-        <v>9.553318210294155</v>
+        <v>10.67436184630014</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4545643936151672</v>
+        <v>0.2170036287586264</v>
       </c>
       <c r="F21" t="n">
-        <v>90.5</v>
+        <v>87.81941666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>4.833846407252635</v>
+        <v>4.914432444886681</v>
       </c>
       <c r="H21" t="n">
-        <v>197.6996878870663</v>
+        <v>178.029320936361</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0964467413864119</v>
+        <v>0.19444458910093</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1142370920361221</v>
+        <v>0.1873243955460047</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3493838115087114</v>
+        <v>0.189502684451755</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4890988358971935</v>
+        <v>0.1763598337159112</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4819085647006407</v>
+        <v>0.1438300543993966</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3838175690763501</v>
+        <v>0.1139851054576964</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4621460446387698</v>
+        <v>0.0119259535576364</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1596828888706961</v>
+        <v>0.0003420429117240965</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1894873610068269</v>
+        <v>0.0018996639710076</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5267741322961907</v>
+        <v>0.006126746197762402</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2196650811019548</v>
+        <v>0.08963867629056384</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1210747034632554</v>
+        <v>0.1689936047798514</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,65 +1923,65 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3245773099820645</v>
+        <v>0.7536595383294135</v>
       </c>
       <c r="C22" t="n">
-        <v>60.32048624158015</v>
+        <v>44.73736299753703</v>
       </c>
       <c r="D22" t="n">
-        <v>23.1270089607293</v>
+        <v>16.37557060766991</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1377504127184475</v>
+        <v>0.2967243459607334</v>
       </c>
       <c r="F22" t="n">
-        <v>62</v>
+        <v>84.3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.478456349101344</v>
+        <v>4.357701148165344</v>
       </c>
       <c r="H22" t="n">
-        <v>212.077389369603</v>
+        <v>186.5441035470833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03256938557476188</v>
+        <v>0.1105030751494986</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04682151806675711</v>
+        <v>0.105040404761928</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07843045130869496</v>
+        <v>0.1294543170203034</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1093833910855864</v>
+        <v>0.126125140267887</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09774235812722086</v>
+        <v>0.1984501462449836</v>
       </c>
       <c r="N22" t="n">
-        <v>0.09245266974282745</v>
+        <v>0.2434987669914349</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01977069398035227</v>
+        <v>0.04253782725498092</v>
       </c>
       <c r="P22" t="n">
-        <v>4.89315109248e-05</v>
+        <v>0.000475940496261888</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.893906205849684e-05</v>
+        <v>0.002070074753846403</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01366661993280757</v>
+        <v>0.008593455507366659</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01616833041819072</v>
+        <v>0.04302494077331961</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01675609184396617</v>
+        <v>0.08283776393114288</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.77456877386234</v>
+        <v>1.052534456913175</v>
       </c>
       <c r="C23" t="n">
-        <v>41.09167664956553</v>
+        <v>36.74461733487721</v>
       </c>
       <c r="D23" t="n">
-        <v>6.903409984317404</v>
+        <v>4.053614344509953</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3009489133358232</v>
+        <v>0.1351188718566965</v>
       </c>
       <c r="F23" t="n">
-        <v>88.889</v>
+        <v>99.2</v>
       </c>
       <c r="G23" t="n">
-        <v>5.927853228238004</v>
+        <v>8.80127136102668</v>
       </c>
       <c r="H23" t="n">
-        <v>159.4998076483473</v>
+        <v>163.1632736286004</v>
       </c>
       <c r="I23" t="n">
-        <v>0.462523723339396</v>
+        <v>0.1923504291327725</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4601975294301073</v>
+        <v>0.2026623740246765</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5694540694953446</v>
+        <v>0.2830678497022442</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4724634550164403</v>
+        <v>0.2353821448970769</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2746153483168945</v>
+        <v>0.1601333215371919</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2119907468640564</v>
+        <v>0.2094796077357456</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2486676958255829</v>
+        <v>0.1034725637081471</v>
       </c>
       <c r="P23" t="n">
-        <v>0.07411238003123641</v>
+        <v>0.0857923773204671</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.123470512566912</v>
+        <v>0.3025655635599555</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1937899869169421</v>
+        <v>0.1333789090615779</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1957717489566572</v>
+        <v>0.1280228343084034</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3701929801881496</v>
+        <v>0.1769078324863675</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6203703232509391</v>
+        <v>0.1287063943162546</v>
       </c>
       <c r="C24" t="n">
-        <v>45.26906580848759</v>
+        <v>53.01435810810811</v>
       </c>
       <c r="D24" t="n">
-        <v>14.21244327030503</v>
+        <v>25.0072430947431</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2356370042183471</v>
+        <v>0.07276899203786734</v>
       </c>
       <c r="F24" t="n">
-        <v>81.71428571428571</v>
+        <v>69</v>
       </c>
       <c r="G24" t="n">
-        <v>3.783598666124997</v>
+        <v>3.169763513513514</v>
       </c>
       <c r="H24" t="n">
-        <v>195.982973777948</v>
+        <v>241.6651182432433</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1748605467884579</v>
+        <v>0.0003302876987424001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1856367371792335</v>
+        <v>0.0246207052469952</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2455566392675997</v>
+        <v>0.007560792214862401</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1840374238576615</v>
+        <v>0.0223981078668336</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0548897961568752</v>
+        <v>0.05294104048249632</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06428519523350959</v>
+        <v>0.05677938341229487</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1320605911174785</v>
+        <v>0.034144291819728</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07468322441508253</v>
+        <v>0.01007926392344566</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05627153486244665</v>
+        <v>0.0014597900759232</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09338429069658515</v>
+        <v>0.0192423166711776</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04601198372913425</v>
+        <v>0.0063243977870304</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1322023077829589</v>
+        <v>0.000366986331936</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.128686227377075</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C25" t="n">
-        <v>36.72186917701863</v>
+        <v>55.09090909090909</v>
       </c>
       <c r="D25" t="n">
-        <v>4.363595468443057</v>
+        <v>21.52929292929293</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1548371769095206</v>
+        <v>1.04555826959414</v>
       </c>
       <c r="F25" t="n">
-        <v>98.49487500000001</v>
+        <v>66</v>
       </c>
       <c r="G25" t="n">
-        <v>8.312989315291334</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>161.5424292923691</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1897960624847014</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2230368050798492</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2952014951508851</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2671441742087171</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1861182820029962</v>
+        <v>0.42461677813632</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2065060839124349</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O25" t="n">
-        <v>0.106872116213542</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08746214377087788</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3566582652449973</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1203487381786537</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1235778323780349</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1736152656817094</v>
+        <v>0.6888803945736074</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.085424296981782</v>
+      </c>
+      <c r="C26" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49.06666666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.190544000170998</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>173.55</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4902937394664961</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.43243222779792</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5257834765078362</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7137790057095729</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4985932765118178</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.322295551958016</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.154903183156224</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.002691233100864</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.052112059134912</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.206001660993408</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.071195348395584</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2721570637637376</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.264560776152003</v>
+      </c>
+      <c r="C27" t="n">
+        <v>37.59309630073482</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.276205781437281</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.36022877326546</v>
+      </c>
+      <c r="F27" t="n">
+        <v>96.83994736842105</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.909034534821781</v>
+      </c>
+      <c r="H27" t="n">
+        <v>179.1814228566311</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1910468966398662</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1919817884479906</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3216738585688874</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3727074644074199</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3422200190916952</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.2511795699924325</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.2458610090981368</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.3902867081568198</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.1914455013293115</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.2410099103106255</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.1253374327577896</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2459643384314422</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C28" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F28" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H28" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.198547350624603</v>
+      </c>
+      <c r="C29" t="n">
+        <v>39.24177187906856</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.6523880561269</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1783890472954146</v>
+      </c>
+      <c r="F29" t="n">
+        <v>93.05457142857144</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.138369331560328</v>
+      </c>
+      <c r="H29" t="n">
+        <v>155.8750190573316</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.277545429400606</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2831934380099653</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3766039527631203</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.2995927039490239</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1726514337663502</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1182472316800434</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1511720098187112</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.05686884276658848</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.07844178477865392</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1285718847139166</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1397717024589395</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2225471805923121</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7975322972829277</v>
+      </c>
+      <c r="C30" t="n">
+        <v>42.80306460763276</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.90479956195945</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2471287836247575</v>
+      </c>
+      <c r="F30" t="n">
+        <v>86</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.144047109717032</v>
+      </c>
+      <c r="H30" t="n">
+        <v>183.3196475679583</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2116481841038042</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.2337851470418712</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2990849467258435</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.2499039586811581</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.08770010269812746</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.09980530717488442</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.1894196180042395</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.09294226062930813</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.1219112781890435</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1651661365093903</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.07826804553012963</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.1805902485191321</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7896204789467576</v>
+      </c>
+      <c r="C31" t="n">
+        <v>42.44639183161588</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8.715252019985259</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1828325749069966</v>
+      </c>
+      <c r="F31" t="n">
+        <v>86.5106</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.577043926738659</v>
+      </c>
+      <c r="H31" t="n">
+        <v>182.4547680208565</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.2043240985447056</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1304439811959354</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1781574891884253</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.1216391373652742</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.20529259386118</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2522882601133384</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.273793564983755</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.1325694727424935</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1619217924077576</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1819948948832908</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.1892067046430769</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.142664899244158</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.111909637123887</v>
+      </c>
+      <c r="C32" t="n">
+        <v>36.78271739130435</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.351052209285178</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.151130797211451</v>
+      </c>
+      <c r="F32" t="n">
+        <v>99</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.620978260869565</v>
+      </c>
+      <c r="H32" t="n">
+        <v>163.8222826086956</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.185367161113857</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.1999333325777082</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.277943706978263</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2737021349631403</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1762756667048012</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2052157410773517</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.1023543986886651</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.09659046761771267</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3290166001986912</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1132952326282557</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.1153620768915777</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1760539275854871</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>3.356276158041934</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>38.06521739130435</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>9.826086956521738</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E33" t="n">
         <v>0.9239822074046888</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F33" t="n">
         <v>95.833</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>4.152173913043478</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>105.7826086956522</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>1.219021949090658</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J33" t="n">
         <v>0.8689368200534524</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>0.4825391587134136</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.393234592439232</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M33" t="n">
         <v>0.00856301441184</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N33" t="n">
         <v>0.18532809762768</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R33" t="n">
         <v>0.005137808647104</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S33" t="n">
         <v>0.6303310635893761</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>1.307044355438516</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
